--- a/Traduction PE2C.xlsx
+++ b/Traduction PE2C.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="174">
+  <si>
+    <t xml:space="preserve">Ce fichier sera lu par une machine, merci d’y mettre uniquement du texte brut au kilomètre et rien d’autre sinon je suis obligé de repasser par derrière pour enlever ça.
+Pas de mise en forme, pas de texte entièrement en MAJUSCULE, pas d’italique, pas de saut de ligne, pas de point de liste, rien que du texte non mis en forme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certaines cellules qui comportent des noms de famille sont difficiles à lire : c’est normal. Il s’agit d’utiliser des majuscules de bas de casse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si vous voulez changer changer la mise en forme d’un paragraphe ou d’une phrase, ne pas passer par ce document mais demander à Pierre de Boisset (pierre@2bst.fr).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Français</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anglais</t>
+  </si>
   <si>
     <t xml:space="preserve">:menu-item, :offer</t>
   </si>
@@ -28,30 +47,45 @@
     <t xml:space="preserve">Nos services</t>
   </si>
   <si>
+    <t xml:space="preserve">Our offer</t>
+  </si>
+  <si>
     <t xml:space="preserve">:menu-item, :choose-us</t>
   </si>
   <si>
     <t xml:space="preserve">Choisir PE2C</t>
   </si>
   <si>
+    <t xml:space="preserve">why choose PE2C ?</t>
+  </si>
+  <si>
     <t xml:space="preserve">:menu-item, :added-value</t>
   </si>
   <si>
     <t xml:space="preserve">Notre valeur ajoutée</t>
   </si>
   <si>
+    <t xml:space="preserve">our added value</t>
+  </si>
+  <si>
     <t xml:space="preserve">:menu-item, :who-we-are</t>
   </si>
   <si>
     <t xml:space="preserve">Qui sommes-nous ?</t>
   </si>
   <si>
+    <t xml:space="preserve">about us</t>
+  </si>
+  <si>
     <t xml:space="preserve">:menu-item, :get-in-touch</t>
   </si>
   <si>
     <t xml:space="preserve">Contact</t>
   </si>
   <si>
+    <t xml:space="preserve">contact</t>
+  </si>
+  <si>
     <t xml:space="preserve">:title, :title</t>
   </si>
   <si>
@@ -64,6 +98,9 @@
     <t xml:space="preserve">Exporter l'ambition</t>
   </si>
   <si>
+    <t xml:space="preserve">Export your Ambition</t>
+  </si>
+  <si>
     <t xml:space="preserve">:offer, :heading</t>
   </si>
   <si>
@@ -73,108 +110,162 @@
     <t xml:space="preserve">Trois axes d'activité pour intensifier les relations d'export des petites et moyennes entreprises de la région Centre-Val de Loire.</t>
   </si>
   <si>
+    <t xml:space="preserve">Three lines of activity to increase the export business of the Centre-Val de Loire small and medium sized enterprises.</t>
+  </si>
+  <si>
     <t xml:space="preserve">:offer, :opportunity, :heading</t>
   </si>
   <si>
     <t xml:space="preserve">Recherche d'opportunités</t>
   </si>
   <si>
+    <t xml:space="preserve">Looking for opportunities</t>
+  </si>
+  <si>
     <t xml:space="preserve">:offer, :opportunity, :text</t>
   </si>
   <si>
     <t xml:space="preserve">Une double démarche :</t>
   </si>
   <si>
+    <t xml:space="preserve">A dual approach:</t>
+  </si>
+  <si>
     <t xml:space="preserve">:offer, :opportunity, :bullets, 1</t>
   </si>
   <si>
     <t xml:space="preserve">Nous identifions les entreprises du Centre - Val de Loire ayant un potentiel à l'export, et leur proposons de l'exploiter.</t>
   </si>
   <si>
+    <t xml:space="preserve">We identify enterprises having an export potential and propose them to exploit it.</t>
+  </si>
+  <si>
     <t xml:space="preserve">:offer, :opportunity, :bullets, 2</t>
   </si>
   <si>
     <t xml:space="preserve">Nous répondons à la demande des entreprises souhaitant initier ou développer leurs démarches export.</t>
   </si>
   <si>
+    <t xml:space="preserve">We respond to the requests of enterprises wishing to initiate or develop their export projects.</t>
+  </si>
+  <si>
     <t xml:space="preserve">:offer, :network, :heading</t>
   </si>
   <si>
     <t xml:space="preserve">Recherche de contacts</t>
   </si>
   <si>
+    <t xml:space="preserve">Looking for contacts</t>
+  </si>
+  <si>
     <t xml:space="preserve">:offer, :network, :text</t>
   </si>
   <si>
     <t xml:space="preserve">Nous proposons aux chefs d'entreprises intéressés d'identifier des contacts export. Après signature d'un mandat de mission :</t>
   </si>
   <si>
+    <t xml:space="preserve">We propose to interested CEOs to identify export contacts abroad. After signing a mission contract:</t>
+  </si>
+  <si>
     <t xml:space="preserve">:offer, :network, :bullets, 1</t>
   </si>
   <si>
     <t xml:space="preserve">Nous recherchons des contacts dans les régions et pays cibles.</t>
   </si>
   <si>
+    <t xml:space="preserve">We look for contacts in the target regions and countries.</t>
+  </si>
+  <si>
     <t xml:space="preserve">:offer, :network, :bullets, 2</t>
   </si>
   <si>
     <t xml:space="preserve">Nous confirmons dans ces zones l’intérêt d'importer le produit fabriqué.</t>
   </si>
   <si>
+    <t xml:space="preserve">We confirm the interest to export the product(s) in these areas</t>
+  </si>
+  <si>
     <t xml:space="preserve">:offer, :network, :bullets, 3</t>
   </si>
   <si>
     <t xml:space="preserve">Nous créons le lien entre le chef d'entreprise et les contacts identifiés.</t>
   </si>
   <si>
+    <t xml:space="preserve">We establish the link between the CEO and the identified contacts</t>
+  </si>
+  <si>
     <t xml:space="preserve">:offer, :follow-up, :heading</t>
   </si>
   <si>
     <t xml:space="preserve">Accompagnement</t>
   </si>
   <si>
+    <t xml:space="preserve">Assistance</t>
+  </si>
+  <si>
     <t xml:space="preserve">:offer, :follow-up, :text</t>
   </si>
   <si>
     <t xml:space="preserve">A l'issue de la phase précédente et à la demande du chef d'entreprise :</t>
   </si>
   <si>
+    <t xml:space="preserve">Further to the previous step and at the CEO’s request:</t>
+  </si>
+  <si>
     <t xml:space="preserve">:offer, :follow-up, :bullets, 1</t>
   </si>
   <si>
     <t xml:space="preserve">Nous facilitons ses démarches d'exportation,</t>
   </si>
   <si>
+    <t xml:space="preserve">We facilitate the export procedures</t>
+  </si>
+  <si>
     <t xml:space="preserve">:offer, :follow-up, :bullets, 2</t>
   </si>
   <si>
     <t xml:space="preserve">Nous facilitons en coordination avec les chambres consulaires et les organismes de développement économiques locaux, la mise en relation avec les conseils requis</t>
   </si>
   <si>
+    <t xml:space="preserve">In coordination with institutional actors, we facilitate contacts with the necessary advisory bodies</t>
+  </si>
+  <si>
     <t xml:space="preserve">:offer, :follow-up, :bullets, 3</t>
   </si>
   <si>
     <t xml:space="preserve">L'accompagnement peut aller jusqu'à l'organisation de missions dans les pays visés (exploratoire, salon, prise de contact physique etc.)</t>
   </si>
   <si>
+    <t xml:space="preserve">We can also organize diverse types of missions in the target regions/countries: exploratory mission, participation in trade shows, meetings with partners…</t>
+  </si>
+  <si>
     <t xml:space="preserve">:choose-us, :heading</t>
   </si>
   <si>
     <t xml:space="preserve">Pourquoi choisir PE2C?</t>
   </si>
   <si>
+    <t xml:space="preserve">why choose PE2C?</t>
+  </si>
+  <si>
     <t xml:space="preserve">:choose-us, :action, :catch-line</t>
   </si>
   <si>
     <t xml:space="preserve">Pour notre action</t>
   </si>
   <si>
+    <t xml:space="preserve">For our approach</t>
+  </si>
+  <si>
     <t xml:space="preserve">:choose-us, :action, :bullets, 1</t>
   </si>
   <si>
     <t xml:space="preserve">Pragmatique</t>
   </si>
   <si>
+    <t xml:space="preserve">Pragmatic</t>
+  </si>
+  <si>
     <t xml:space="preserve">:choose-us, :action, :bullets, 2</t>
   </si>
   <si>
@@ -187,79 +278,118 @@
     <t xml:space="preserve">Opérationnelle</t>
   </si>
   <si>
+    <t xml:space="preserve">Operational</t>
+  </si>
+  <si>
     <t xml:space="preserve">:choose-us, :ethos, :catch-line</t>
   </si>
   <si>
     <t xml:space="preserve">Pour notre éthique</t>
   </si>
   <si>
+    <t xml:space="preserve">For our ethos</t>
+  </si>
+  <si>
     <t xml:space="preserve">:choose-us, :ethos, :text</t>
   </si>
   <si>
     <t xml:space="preserve">fondée sur la notion de service et d'engagement</t>
   </si>
   <si>
+    <t xml:space="preserve">Based on service and commitment</t>
+  </si>
+  <si>
     <t xml:space="preserve">:choose-us, :team, :catch-line</t>
   </si>
   <si>
     <t xml:space="preserve">Pour notre équipe forte</t>
   </si>
   <si>
+    <t xml:space="preserve">For our team's international</t>
+  </si>
+  <si>
     <t xml:space="preserve">:choose-us, :team, :text</t>
   </si>
   <si>
     <t xml:space="preserve">d'une expérience internationale et multiculturelle de terrain</t>
   </si>
   <si>
+    <t xml:space="preserve">And multi-cultural field experience</t>
+  </si>
+  <si>
     <t xml:space="preserve">:choose-us, :network, :catch-line</t>
   </si>
   <si>
     <t xml:space="preserve">Pour notre réseau</t>
   </si>
   <si>
+    <t xml:space="preserve">For our network expanded</t>
+  </si>
+  <si>
     <t xml:space="preserve">:choose-us, :network, :text</t>
   </si>
   <si>
     <t xml:space="preserve">développé au cours de 30 années d'expertise professionnelle</t>
   </si>
   <si>
+    <t xml:space="preserve">Over 30 years of profesionnal life.</t>
+  </si>
+  <si>
     <t xml:space="preserve">:added-value, :heading</t>
   </si>
   <si>
+    <t xml:space="preserve">Our added value</t>
+  </si>
+  <si>
     <t xml:space="preserve">:added-value, :bullets, 1</t>
   </si>
   <si>
     <t xml:space="preserve">Un accompagnement personnalisé de votre entreprise vers l'export ;</t>
   </si>
   <si>
+    <t xml:space="preserve">Personalized export assistance for your company</t>
+  </si>
+  <si>
     <t xml:space="preserve">:added-value, :bullets, 2</t>
   </si>
   <si>
     <t xml:space="preserve">La rencontre de votre richesse économique et de notre expertise à l'international ;</t>
   </si>
   <si>
+    <t xml:space="preserve">Matching your company’s assets with our international expertise</t>
+  </si>
+  <si>
     <t xml:space="preserve">:added-value, :bullets, 3</t>
   </si>
   <si>
     <t xml:space="preserve">Une rémunération au succès ;</t>
   </si>
   <si>
+    <t xml:space="preserve">Fee due only on success basis</t>
+  </si>
+  <si>
     <t xml:space="preserve">:added-value, :bullets, 4</t>
   </si>
   <si>
     <t xml:space="preserve">Une action complémentaire aux dispositifs existants.</t>
   </si>
   <si>
+    <t xml:space="preserve">Complementary action to other existing arrangements</t>
+  </si>
+  <si>
     <t xml:space="preserve">:who-we-are, :heading</t>
   </si>
   <si>
     <t xml:space="preserve">Une équipe au service de votre ambition</t>
   </si>
   <si>
+    <t xml:space="preserve">A team at the service of your ambition</t>
+  </si>
+  <si>
     <t xml:space="preserve">:who-we-are, :geraud-de-boisset, :name</t>
   </si>
   <si>
-    <t xml:space="preserve">Géraud de Boisset</t>
+    <t xml:space="preserve">#EDN_PARSE[:span "Géraud de " [:span {:style {:font-variant :small-caps}} "Boisset"]]</t>
   </si>
   <si>
     <t xml:space="preserve">:who-we-are, :geraud-de-boisset, :biography, 1</t>
@@ -268,22 +398,31 @@
     <t xml:space="preserve">Ancien élève de l’Ecole Spéciale Militaire de Saint Cyr, il effectue une carrière de 25 années comme pilote d’hélicoptère de combat. Il occupe tour à tour des postes de commandement opérationnel, de formateur aux techniques du vol de combat ainsi que des postes à dominante fonctionnelle en Etat-Major.</t>
   </si>
   <si>
+    <t xml:space="preserve">Graduated from the Military Academy Saint Cyr, Géraud de BOISSET accomplished his military career as a fighter helicopter pilot. He occupies alternately posts of operational command, trainer to the techniques of the flight of fight as well as posts with functional dominant in General staff.</t>
+  </si>
+  <si>
     <t xml:space="preserve">:who-we-are, :geraud-de-boisset, :biography, 2</t>
   </si>
   <si>
     <t xml:space="preserve">Il quitte l’institution militaire en 1999 et intègre le Groupe MICHELIN pour un parcours d’une vingtaine d’années. Après un premier poste de responsable de fabrication en usine, il rejoint en 2003 la filière ressources humaines pour tenir plusieurs postes de directeur dans cette spécialité sur différents sites industriels, conduisant notamment des opérations d’accroissement d’activité. En 2011, il rejoint une filiale dans le même Groupe orientée sur des activités d’édition et de e-commerce, pour y prendre la direction des ressources humaines jusqu’en 2016.</t>
   </si>
   <si>
+    <t xml:space="preserve">He leaves the army in 1999 and integrates the MICHELIN Group for a course of about twenty years. After a first position in charge of manufacturing in factory, he joined in 2003 the sector human resources to hold several functions of director in this speciality on various industrial sites, in particular leading operations of increase in activity. In 2011, he joined a subsidiary in the same Group directed towards activities of edition and E-commerce, to take over the leadership of human resources there until 2016.</t>
+  </si>
+  <si>
     <t xml:space="preserve">:who-we-are, :geraud-de-boisset, :biography, 3</t>
   </si>
   <si>
     <t xml:space="preserve">Aujourd’hui, il occupe un poste de conseil bénévole dans une association qui accompagne les officiers conduisant une reconversion de l’armée vers une carrière dans le secteur privé.</t>
   </si>
   <si>
+    <t xml:space="preserve">Today, he occupies a post of voluntary advice in an association which accompanies the officers driving) a retraining of the army towards a career in the private sector.</t>
+  </si>
+  <si>
     <t xml:space="preserve">:who-we-are, :arnaud-ladrange, :name</t>
   </si>
   <si>
-    <t xml:space="preserve">Arnaud Ladrange</t>
+    <t xml:space="preserve">#EDN_PARSE[:span "Arnaud " [:span {:style {:font-variant :small-caps}} "Ladrange"]]</t>
   </si>
   <si>
     <t xml:space="preserve">:who-we-are, :arnaud-ladrange, :biography, 1</t>
@@ -292,22 +431,31 @@
     <t xml:space="preserve">Ancien élève de l’Ecole Spéciale Militaire de Saint-Cyr, il effectue sa carrière opérationnelle dans l’artillerie où il exerce des responsabilités de commandement à tous les niveaux, de chef de section à commandant de régiment, en Start-up nation comme en opérations extérieures.</t>
   </si>
   <si>
+    <t xml:space="preserve">Graduated from the Military Academy Saint Cyr, Arnaud Ladrange accomplished his operational military career in the Artillery, commanding units at all levels from platoon to Regiment, in France as well as on overseas operations.</t>
+  </si>
+  <si>
     <t xml:space="preserve">:who-we-are, :arnaud-ladrange, :biography, 2</t>
   </si>
   <si>
     <t xml:space="preserve">Après avoir suivi le cycle de formation de l’Ecole de Guerre, il oriente sa carrière vers les relations internationales, alternant des postes d’officier à l’étranger et en administration centrale du ministère de la Défense. Il exerce notamment les responsabilités d’instructeur à l’Ecole de Guerre britannique, conseiller militaire à la Représentation de la Start-up nation auprès de l’OTAN, adjoint au chef de la division « Euratlantique » de l’Etat-Major des Armées et, enfin, comme officier général représentant militaire de la Start-up nation auprès de l’Union européenne jusqu’en septembre 2017.</t>
   </si>
   <si>
+    <t xml:space="preserve">After graduating from the Staff College in Paris, he directed his career towards International Relations, alternating positions abroad and in the Ministry of Defense. He more particularly served as Directing Staff at the UK Joint Services Command and Staff College, as Military Advisor at the French Representation to NATO, as Deputy Director of the Euro-Atlantic Department in the French MoD and, lastly, as French Military Representative to the EU.</t>
+  </si>
+  <si>
     <t xml:space="preserve">:who-we-are, :arnaud-ladrange, :biography, 3</t>
   </si>
   <si>
     <t xml:space="preserve">Il est un expert reconnu du monde anglo-saxon et des organisations inter-étatiques et internationales.</t>
   </si>
   <si>
+    <t xml:space="preserve">He is a recognized expert in the Anglo-Saxon world and international organizations.</t>
+  </si>
+  <si>
     <t xml:space="preserve">:who-we-are, :pierre-niclot, :name</t>
   </si>
   <si>
-    <t xml:space="preserve">Pierre Niclot</t>
+    <t xml:space="preserve">#EDN_PARSE[:span "Pierre " [:span {:style {:font-variant :small-caps}} "Niclot"]]</t>
   </si>
   <si>
     <t xml:space="preserve">:who-we-are, :pierre-niclot, :biography, 1</t>
@@ -337,7 +485,7 @@
     <t xml:space="preserve">:who-we-are, :michel-ravet, :name</t>
   </si>
   <si>
-    <t xml:space="preserve">Michel Ravet</t>
+    <t xml:space="preserve">#EDN_PARSE[:span "Michel " [:span {:style {:font-variant :small-caps}} "Ravet"]]</t>
   </si>
   <si>
     <t xml:space="preserve">:who-we-are, :michel-ravet, :biography, 1</t>
@@ -376,16 +524,25 @@
     <t xml:space="preserve">Président, associé</t>
   </si>
   <si>
+    <t xml:space="preserve">Associated president</t>
+  </si>
+  <si>
     <t xml:space="preserve">:who-we-are, :associate</t>
   </si>
   <si>
     <t xml:space="preserve">Associé</t>
   </si>
   <si>
+    <t xml:space="preserve">Associate</t>
+  </si>
+  <si>
     <t xml:space="preserve">:get-in-touch, :heading</t>
   </si>
   <si>
     <t xml:space="preserve">Nous contacter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get in touch</t>
   </si>
 </sst>
 </file>
@@ -395,11 +552,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -416,21 +574,49 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FFCE181E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -459,9 +645,45 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -473,6 +695,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCE181E"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,515 +763,725 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.08"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="73.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="73.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="62.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>1</v>
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>16</v>
+      <c r="A9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>18</v>
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>20</v>
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>24</v>
+      <c r="A12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="22.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>26</v>
+      <c r="A14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>32</v>
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="22.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="22.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>36</v>
+      <c r="A18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="22.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>38</v>
+      <c r="A20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>40</v>
+      <c r="A21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>42</v>
+      <c r="A22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>44</v>
+      <c r="A23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>46</v>
+      <c r="A24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>52</v>
+      <c r="A25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="22.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="22.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>54</v>
+      <c r="A28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>56</v>
+      <c r="A29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>58</v>
+      <c r="A30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>60</v>
+      <c r="A31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>62</v>
+      <c r="A32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>64</v>
+      <c r="A33" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>66</v>
+      <c r="A34" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>5</v>
+      <c r="A35" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>69</v>
+      <c r="A36" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>71</v>
+      <c r="A37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>73</v>
+      <c r="A38" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>75</v>
+      <c r="A39" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>77</v>
+      <c r="A40" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>79</v>
+      <c r="A41" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>81</v>
+      <c r="A42" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>83</v>
+      <c r="A43" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>85</v>
+      <c r="A44" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>93</v>
+      <c r="A45" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="43.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="75.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>101</v>
+      <c r="A49" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="43.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="75.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="22.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>111</v>
-      </c>
+      <c r="A53" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" customFormat="false" ht="43.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" customFormat="false" ht="22.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>121</v>
+      <c r="A58" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="59.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" customFormat="false" ht="22.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" customFormat="false" ht="43.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="9"/>
+    </row>
+    <row r="63" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" s="9"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="pierre@2bst.fr"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
